--- a/config/Score_config/config_score_mode.xlsx
+++ b/config/Score_config/config_score_mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\Score_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\Score_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F99AB0-B62C-40AE-88D4-76E39CADB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505C45E8-F525-4B6F-B86B-1CD5FC6BA9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,16 +402,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,29 +422,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1247</v>
+        <v>1130</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2227</v>
+        <v>1864</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>

--- a/config/Score_config/config_score_mode.xlsx
+++ b/config/Score_config/config_score_mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\Score_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505C45E8-F525-4B6F-B86B-1CD5FC6BA9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51BD32C-EB39-4FA1-BA44-3FE55A36B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,13 +405,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,7 +433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -444,7 +444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>

--- a/config/Score_config/config_score_mode.xlsx
+++ b/config/Score_config/config_score_mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\Score_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51BD32C-EB39-4FA1-BA44-3FE55A36B972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7000C5-EFB0-4EBC-A49D-6B5701F07986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1130</v>
+        <v>1003</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1864</v>
+        <v>2394</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>

--- a/config/Score_config/config_score_mode.xlsx
+++ b/config/Score_config/config_score_mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\config\Score_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\Score_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7000C5-EFB0-4EBC-A49D-6B5701F07986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ECE53F-78CC-41DB-9994-48FF2FB075FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1003</v>
+        <v>1219</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2394</v>
+        <v>2784</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
